--- a/biology/Zoologie/Dasypeltis_fasciata/Dasypeltis_fasciata.xlsx
+++ b/biology/Zoologie/Dasypeltis_fasciata/Dasypeltis_fasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis fasciata est une espèce de serpents de la famille des Colubridae[1]. Vernaculairement, on parle du mangeurs d’œufs des forêts de l'Ouest, en référence à sa zone de répartition ouest africaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis fasciata est une espèce de serpents de la famille des Colubridae. Vernaculairement, on parle du mangeurs d’œufs des forêts de l'Ouest, en référence à sa zone de répartition ouest africaine.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis fasciata[2] mesure en moyenne 60 cm (maximum observé : 102 cm). Son dos est gris olive à rougeâtre et est marqué de taches ou lignes transversales jaunâtres. Son ventre est uniformément brun grisâtre. Sa tête est petite et assez peu distincte du cou. Son museau est arrondi. Ses yeux sont de taille moyenne et leur pupille est verticale.
-C'est une espèce essentiellement forestière qui est souvent confondu avec Dasypeltis gansi, le mangeur d'œufs de Gans en zone de savane, ou de plaine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis fasciata mesure en moyenne 60 cm (maximum observé : 102 cm). Son dos est gris olive à rougeâtre et est marqué de taches ou lignes transversales jaunâtres. Son ventre est uniformément brun grisâtre. Sa tête est petite et assez peu distincte du cou. Son museau est arrondi. Ses yeux sont de taille moyenne et leur pupille est verticale.
+C'est une espèce essentiellement forestière qui est souvent confondu avec Dasypeltis gansi, le mangeur d'œufs de Gans en zone de savane, ou de plaine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] au Cameroun, en Côte d'Ivoire, au Gabon, en Gambie, au Ghana, en Guinée, en Guinée-Bissau, au Liberia, au Mali, au Nigeria, en Ouganda, en République centrafricaine, en République démocratique du Congo, en République du Congo, au Sénégal, en Sierra Leone, au Tchad et au Togo. Sa présence est incertaine au Bénin.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, en Côte d'Ivoire, au Gabon, en Gambie, au Ghana, en Guinée, en Guinée-Bissau, au Liberia, au Mali, au Nigeria, en Ouganda, en République centrafricaine, en République démocratique du Congo, en République du Congo, au Sénégal, en Sierra Leone, au Tchad et au Togo. Sa présence est incertaine au Bénin.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin fasciata, « entouré de bandes », lui a été donné en référence aux marques présentent sur son dos.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1849 : Illustrations of the Zoology of South Africa. 3 (Reptiles).</t>
         </is>
